--- a/rider/weekly/2016_47.xlsx
+++ b/rider/weekly/2016_47.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>241</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>266.5</c:v>
+                  <c:v>266.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.25</c:v>
+                  <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225.25</c:v>
+                  <c:v>233.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118</c:v>
+                  <c:v>119.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.59999999999999</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D2">
-        <v>266.5</v>
+        <v>266.25</v>
       </c>
       <c r="E2">
         <v>91.73</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>222.5</v>
       </c>
       <c r="E3">
         <v>91.89</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>243.25</v>
+        <v>241.5</v>
       </c>
       <c r="E4">
         <v>92.05</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>225.25</v>
+        <v>233.25</v>
       </c>
       <c r="E5">
         <v>92.37</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>119.4</v>
       </c>
       <c r="E6">
         <v>92.54000000000001</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>85.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="E7">
         <v>92.7</v>
